--- a/HistoryofChange.xlsx
+++ b/HistoryofChange.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\doc\GitHub\ZUSI_TimeTableGraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B06145A-2BE5-4CD2-98E3-EE4BF03354EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6172AEF0-63B2-4414-911E-A0C868D1E353}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B7038BA0-A270-4BE5-8AAE-FFCEF6BA1D43}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Strichstärke „0“ blendet die Darstellung aus. Vermutlich beabsichtigt, denn damit lassen sich elegant nicht gewünschte Zuggattungen ausblenden bzw. filtern.</t>
   </si>
   <si>
-    <t>Links an der Donnersbergerbrücke sind die Züge des weiteren Abschnitts durch den Stammstreckentunnel angedeutet (Abschnitt ist auf Donnersbergerbrücke-Wolfratshausen begrenzt). Das überlädt die Darstellung ein wenig, auch wenn ich natürlich den dahinter liegenden Ansatz „ein- und ausbrechende Züge“ vermute. Vielleicht findet sich da noch eine pfiffige Lösung.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kann man eine Unterscheidung zwischen Zugfolgestellen (Sbk, Bk, Abzw) und Zugmeldestellen (Bf) durchführen, d.h. erstere schwächer darstellen (grau)? </t>
   </si>
   <si>
@@ -216,6 +213,18 @@
   </si>
   <si>
     <t>Implementiert</t>
+  </si>
+  <si>
+    <t>Links an der Startstation sind die Züge des weiteren Abschnitts angedeutet (Abschnitt ist aufTeilstrecke begrenzt). Das überlädt die Darstellung ein wenig, auch wenn ich natürlich den dahinter liegenden Ansatz „ein- und ausbrechende Züge“ vermute. Vielleicht findet sich da noch eine pfiffige Lösung.</t>
+  </si>
+  <si>
+    <t>Dokumentation und Hilfe</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Wiki in Arbeit</t>
   </si>
 </sst>
 </file>
@@ -614,7 +623,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,20 +672,20 @@
         <v>44225</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -687,7 +696,7 @@
         <v>44225</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -697,10 +706,10 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -711,7 +720,7 @@
         <v>44225</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -720,13 +729,13 @@
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -737,7 +746,7 @@
         <v>44225</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -747,10 +756,10 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -761,19 +770,19 @@
         <v>44225</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>11</v>
@@ -787,17 +796,17 @@
         <v>44225</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -809,17 +818,17 @@
         <v>44225</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>11</v>
@@ -833,17 +842,17 @@
         <v>44225</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>11</v>
@@ -857,7 +866,7 @@
         <v>44227</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -867,10 +876,10 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -884,7 +893,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -907,7 +916,7 @@
         <v>44230</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
@@ -917,7 +926,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>13</v>
@@ -931,7 +940,7 @@
         <v>44230</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -941,7 +950,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>13</v>
@@ -965,13 +974,13 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1014</v>
       </c>
@@ -979,7 +988,7 @@
         <v>44230</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -989,7 +998,7 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -1001,7 +1010,7 @@
         <v>44230</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -1011,7 +1020,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1023,7 +1032,7 @@
         <v>44230</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
@@ -1033,7 +1042,7 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>13</v>
@@ -1047,7 +1056,7 @@
         <v>44230</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>15</v>
@@ -1057,7 +1066,7 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>13</v>
@@ -1071,10 +1080,10 @@
         <v>44230</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>6</v>
@@ -1083,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>13</v>
@@ -1097,27 +1106,40 @@
         <v>44230</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="3">
+        <v>1020</v>
+      </c>
+      <c r="B21" s="5">
+        <v>44258</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">

--- a/HistoryofChange.xlsx
+++ b/HistoryofChange.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\doc\GitHub\ZUSI_TimeTableGraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6172AEF0-63B2-4414-911E-A0C868D1E353}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59474A5A-DEC3-454C-A6B2-E0DD313045D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B7038BA0-A270-4BE5-8AAE-FFCEF6BA1D43}"/>
+    <workbookView xWindow="-19320" yWindow="1785" windowWidth="19440" windowHeight="15000" xr2:uid="{B7038BA0-A270-4BE5-8AAE-FFCEF6BA1D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -225,6 +225,27 @@
   </si>
   <si>
     <t>Wiki in Arbeit</t>
+  </si>
+  <si>
+    <t>Zugnamen sind bei Zügen von links nach rechts unterhalb der Linie, bei Zügen von rechts-nach-links oberhalb. Es wäre besser sie immer oberhalb zu setzen</t>
+  </si>
+  <si>
+    <t>Zugnammen sind jetzt immer oberhalb der Zuglinie</t>
+  </si>
+  <si>
+    <t>00.09</t>
+  </si>
+  <si>
+    <t>sonder Konfigurationen wie Zugfolgestellen und ein-ausbrechende Züge in eigene Konfigseite auslagern</t>
+  </si>
+  <si>
+    <t>Zoom in and out with ctrl wheel</t>
+  </si>
+  <si>
+    <t>Update Licence Infromation to GNU AFFERO GENERAL PUBLIC LICENSE</t>
+  </si>
+  <si>
+    <t>Added Licence Information to Sourcecode and added licence text as text file, this makes the timetablegraph licence compatible with GhostScript licence requirements</t>
   </si>
 </sst>
 </file>
@@ -621,24 +642,25 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="9"/>
-    <col min="3" max="3" width="58.28515625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="81.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="70.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -788,7 +810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -908,7 +930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1011</v>
       </c>
@@ -932,7 +954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1012</v>
       </c>
@@ -956,7 +978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1013</v>
       </c>
@@ -980,7 +1002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1014</v>
       </c>
@@ -1002,7 +1024,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1015</v>
       </c>
@@ -1024,7 +1046,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1016</v>
       </c>
@@ -1072,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1018</v>
       </c>
@@ -1125,7 +1147,7 @@
         <v>1020</v>
       </c>
       <c r="B21" s="5">
-        <v>44258</v>
+        <v>44230</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>60</v>
@@ -1142,41 +1164,89 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+    <row r="22" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1021</v>
+      </c>
+      <c r="B22" s="5">
+        <v>44231</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1022</v>
+      </c>
+      <c r="B23" s="5">
+        <v>44231</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="3">
+        <v>1033</v>
+      </c>
+      <c r="B24" s="5">
+        <v>44231</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>

--- a/HistoryofChange.xlsx
+++ b/HistoryofChange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\doc\GitHub\ZUSI_TimeTableGraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59474A5A-DEC3-454C-A6B2-E0DD313045D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF463853-0309-4DA2-9CD6-D19236C0EB06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="1785" windowWidth="19440" windowHeight="15000" xr2:uid="{B7038BA0-A270-4BE5-8AAE-FFCEF6BA1D43}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -230,9 +230,6 @@
     <t>Zugnamen sind bei Zügen von links nach rechts unterhalb der Linie, bei Zügen von rechts-nach-links oberhalb. Es wäre besser sie immer oberhalb zu setzen</t>
   </si>
   <si>
-    <t>Zugnammen sind jetzt immer oberhalb der Zuglinie</t>
-  </si>
-  <si>
     <t>00.09</t>
   </si>
   <si>
@@ -246,6 +243,36 @@
   </si>
   <si>
     <t>Added Licence Information to Sourcecode and added licence text as text file, this makes the timetablegraph licence compatible with GhostScript licence requirements</t>
+  </si>
+  <si>
+    <t>Zugnamen sind jetzt immer oberhalb der Zuglinie</t>
+  </si>
+  <si>
+    <t>00.10</t>
+  </si>
+  <si>
+    <t>Neue Seite - Spezial-Einstellungen</t>
+  </si>
+  <si>
+    <t>wheel = scroll vertical
+shift wheel =  scroll horizontal
+ctrl wheel = zoom in out
+key arrow up/down = scroll vertical
+key arrow right/left = scroll horizontal
+crtl arrow up/down = zoom in/out
+home (Pos1) = setback to scalefactor 1</t>
+  </si>
+  <si>
+    <t>Minutenlinien hinzufügen (10,15,20,30 min)</t>
+  </si>
+  <si>
+    <t>neue Seite Extra-Einstellungen
+Einstellunge für ein/ausbrechende Züge
+Anzeigen, keine kreuzenden Züge, nicht in Startstationen, nicht in Endstationen</t>
+  </si>
+  <si>
+    <t>neue Einstellung in Extra-Einstellungen
+Parameter für Zugfolgestationen</t>
   </si>
 </sst>
 </file>
@@ -643,8 +670,8 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,9 +1047,11 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1042,9 +1071,11 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1182,10 +1213,10 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1196,7 +1227,7 @@
         <v>44231</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>52</v>
@@ -1205,10 +1236,14 @@
         <v>61</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1033</v>
       </c>
@@ -1216,7 +1251,7 @@
         <v>44231</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>52</v>
@@ -1225,14 +1260,22 @@
         <v>61</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="3">
+        <v>1044</v>
+      </c>
+      <c r="B25" s="5">
+        <v>44232</v>
+      </c>
       <c r="C25" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>52</v>
@@ -1242,20 +1285,35 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="3">
+        <v>1045</v>
+      </c>
+      <c r="B26" s="5">
+        <v>44232</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>

--- a/HistoryofChange.xlsx
+++ b/HistoryofChange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\doc\GitHub\ZUSI_TimeTableGraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF463853-0309-4DA2-9CD6-D19236C0EB06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA54BE8-D084-4BE8-AD22-F7AC3880E818}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="1785" windowWidth="19440" windowHeight="15000" xr2:uid="{B7038BA0-A270-4BE5-8AAE-FFCEF6BA1D43}"/>
   </bookViews>
@@ -670,8 +670,8 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HistoryofChange.xlsx
+++ b/HistoryofChange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\doc\GitHub\ZUSI_TimeTableGraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA54BE8-D084-4BE8-AD22-F7AC3880E818}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E4B455-337E-4AAA-81E5-9F8EB300241E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="1785" windowWidth="19440" windowHeight="15000" xr2:uid="{B7038BA0-A270-4BE5-8AAE-FFCEF6BA1D43}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -273,6 +273,30 @@
   <si>
     <t>neue Einstellung in Extra-Einstellungen
 Parameter für Zugfolgestationen</t>
+  </si>
+  <si>
+    <t>Umlaute in ZugGattung z.B. Üg machen Probleme beim Öffnen der timetable.xml Datei</t>
+  </si>
+  <si>
+    <t>Umlaute werden in ASCII umgesetzt wenn der timetable.xml-Dateiname gebildet wird.</t>
+  </si>
+  <si>
+    <t>00.11</t>
+  </si>
+  <si>
+    <t>Station mit FplRglGgl = 1 wurden nicht angezeigt</t>
+  </si>
+  <si>
+    <t>Neue Option in Extra Einstellungen FplRglGgl</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Zugfolgestationen ohne Abfahrtszeit werden nicht angezeigt</t>
+  </si>
+  <si>
+    <t>Neue Option in Extra Einstellungen "Zeige alle ZFS"</t>
   </si>
 </sst>
 </file>
@@ -670,8 +694,8 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,31 +1339,75 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="5"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+    <row r="27" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1046</v>
+      </c>
+      <c r="B27" s="5">
+        <v>44233</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="5"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="5"/>
+      <c r="G27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1047</v>
+      </c>
+      <c r="B28" s="5">
+        <v>44233</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1048</v>
+      </c>
+      <c r="B29" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>

--- a/HistoryofChange.xlsx
+++ b/HistoryofChange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\doc\GitHub\ZUSI_TimeTableGraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E4B455-337E-4AAA-81E5-9F8EB300241E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B738E946-2FD2-40B9-850C-E88EE935472E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="1785" windowWidth="19440" windowHeight="15000" xr2:uid="{B7038BA0-A270-4BE5-8AAE-FFCEF6BA1D43}"/>
   </bookViews>
@@ -695,7 +695,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HistoryofChange.xlsx
+++ b/HistoryofChange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\doc\GitHub\ZUSI_TimeTableGraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B738E946-2FD2-40B9-850C-E88EE935472E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC317D2-0D87-4B73-B298-66421A9412B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="1785" windowWidth="19440" windowHeight="15000" xr2:uid="{B7038BA0-A270-4BE5-8AAE-FFCEF6BA1D43}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -293,10 +293,55 @@
     <t>Error</t>
   </si>
   <si>
-    <t>Zugfolgestationen ohne Abfahrtszeit werden nicht angezeigt</t>
-  </si>
-  <si>
-    <t>Neue Option in Extra Einstellungen "Zeige alle ZFS"</t>
+    <t>09.02..2021</t>
+  </si>
+  <si>
+    <t>Benutzeroberfläche aufgeräumt</t>
+  </si>
+  <si>
+    <t>00.12</t>
+  </si>
+  <si>
+    <t>Linien könne jetzt auch gestrichelt oder gepunkted sein</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Neue Comobox mit Strichoptionen für alle Linien</t>
+  </si>
+  <si>
+    <t>Stationen für Bildfahrplanstrecke einzeln auswählen</t>
+  </si>
+  <si>
+    <t>neue Auswahlliste in Expertenseite</t>
+  </si>
+  <si>
+    <t>Minutenanzeige teilweise nicht korrekt</t>
+  </si>
+  <si>
+    <t>Minutenanzeige komplett überarbeitet</t>
+  </si>
+  <si>
+    <t>add a refresh button - key</t>
+  </si>
+  <si>
+    <t>Minutenanzeige bei .trn-Dateien incorrect</t>
+  </si>
+  <si>
+    <t>F5 - aktiviert einen refresh</t>
+  </si>
+  <si>
+    <t>Sekunden beim Zeichnen der Linien berücksichtigt</t>
+  </si>
+  <si>
+    <t>00.13</t>
+  </si>
+  <si>
+    <t>Waagerechte Linie bei Sekundendifferenzen</t>
+  </si>
+  <si>
+    <t>Doppelte Stationeneinträge wurden falsch interpretiert, korrigiert,, es zählt nur der letzte Eintrag</t>
   </si>
 </sst>
 </file>
@@ -694,8 +739,8 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,79 +1434,171 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1048</v>
       </c>
-      <c r="B29" s="5">
-        <v>44348</v>
+      <c r="B29" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="5"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1049</v>
+      </c>
+      <c r="B30" s="5">
+        <v>44236</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="5"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>1050</v>
+      </c>
+      <c r="B31" s="5">
+        <v>44236</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="5"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="A32" s="3">
+        <v>1051</v>
+      </c>
+      <c r="B32" s="5">
+        <v>44237</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="5"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="A33" s="3">
+        <v>1052</v>
+      </c>
+      <c r="B33" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1053</v>
+      </c>
+      <c r="B34" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="3">
+        <v>1054</v>
+      </c>
+      <c r="B35" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>

--- a/HistoryofChange.xlsx
+++ b/HistoryofChange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\doc\GitHub\ZUSI_TimeTableGraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC317D2-0D87-4B73-B298-66421A9412B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB3CABA-8175-4059-8EB6-74FECFCDF6BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="1785" windowWidth="19440" windowHeight="15000" xr2:uid="{B7038BA0-A270-4BE5-8AAE-FFCEF6BA1D43}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="108">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -342,6 +342,33 @@
   </si>
   <si>
     <t>Doppelte Stationeneinträge wurden falsch interpretiert, korrigiert,, es zählt nur der letzte Eintrag</t>
+  </si>
+  <si>
+    <t>Speichern der Konfig funktioniert nicht</t>
+  </si>
+  <si>
+    <t>Korrigiert</t>
+  </si>
+  <si>
+    <t>00.14</t>
+  </si>
+  <si>
+    <t>Ausgabe als PDF geht nicht</t>
+  </si>
+  <si>
+    <t>Sekunden anzeigen</t>
+  </si>
+  <si>
+    <t>Sekunden werden im ToolTip angezeigt</t>
+  </si>
+  <si>
+    <t>1ß58</t>
+  </si>
+  <si>
+    <t>Mehrere Stationen mit demselben Namen werden erzeugen Darstellunsgfehler</t>
+  </si>
+  <si>
+    <t>Mehrere Stationen mit demselben Namen werden jetzt unterstützt.</t>
   </si>
 </sst>
 </file>
@@ -739,8 +766,8 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,40 +1628,96 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="5"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="A36" s="3">
+        <v>1055</v>
+      </c>
+      <c r="B36" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="5"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="A37" s="3">
+        <v>1056</v>
+      </c>
+      <c r="B37" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="5"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="A38" s="3">
+        <v>1057</v>
+      </c>
+      <c r="B38" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="5"/>
+      <c r="G38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>

--- a/HistoryofChange.xlsx
+++ b/HistoryofChange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\doc\GitHub\ZUSI_TimeTableGraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB3CABA-8175-4059-8EB6-74FECFCDF6BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3EF445-D3EB-422A-B55C-9EB370BFD8E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="1785" windowWidth="19440" windowHeight="15000" xr2:uid="{B7038BA0-A270-4BE5-8AAE-FFCEF6BA1D43}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="118">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -362,13 +362,43 @@
     <t>Sekunden werden im ToolTip angezeigt</t>
   </si>
   <si>
-    <t>1ß58</t>
-  </si>
-  <si>
-    <t>Mehrere Stationen mit demselben Namen werden erzeugen Darstellunsgfehler</t>
-  </si>
-  <si>
-    <t>Mehrere Stationen mit demselben Namen werden jetzt unterstützt.</t>
+    <t>Anzeige bei mehreren Signalen in derselben Betriebsstelle verbessert</t>
+  </si>
+  <si>
+    <t>Betriebsstellen mit mehreren Signalen mit Abfahrtszeiten erzeugen Darstellungsfehler</t>
+  </si>
+  <si>
+    <t>Betriebsstellen mit mehreren Signalen mit Abfahrtszeiten werden unterstützt. Nur das letzte Signal wird angezeigt</t>
+  </si>
+  <si>
+    <t>00.15</t>
+  </si>
+  <si>
+    <t>Wenn bei einem Signal eine Ankunftszeit eingetragen ist, wird diese Signal berücksichtigt. Gibt es mehrere Signale mit Ankunft- und Abfahrtszeit wird die Ankunftszeit des ersten und die Abfahrtszeit des letzten Signals mit einer Ankunftszeit  verwendet</t>
+  </si>
+  <si>
+    <t>Logfile war im falschen Verzeichnis</t>
+  </si>
+  <si>
+    <t>Logfile ist wieder im Hauptverzeichnis - auch bei OneFile</t>
+  </si>
+  <si>
+    <t>Minutenanzeigen im Vertikal Modus falsch positioniert</t>
+  </si>
+  <si>
+    <t>Konfiguration unter verschiedenen namen abspeichern und wieder einlesen</t>
+  </si>
+  <si>
+    <t>harold / Michael</t>
+  </si>
+  <si>
+    <t>02.xx</t>
+  </si>
+  <si>
+    <t>Ankunfts- und Abfahrtszeiten durch verschieben mit der Maus ändern</t>
+  </si>
+  <si>
+    <t>Zugnamen auch anzeigen, wenn sie nicht in das Segment passen (für einzoomen)</t>
   </si>
 </sst>
 </file>
@@ -767,7 +797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,8 +1730,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>105</v>
+      <c r="A39" s="3">
+        <v>1058</v>
       </c>
       <c r="B39" s="5">
         <v>44239</v>
@@ -1709,69 +1739,157 @@
       <c r="C39" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="4" t="s">
         <v>107</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="5"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+    <row r="40" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>1059</v>
+      </c>
+      <c r="B40" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="5"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="A41" s="3">
+        <v>1060</v>
+      </c>
+      <c r="B41" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="5"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>1061</v>
+      </c>
+      <c r="B42" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="5"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>1062</v>
+      </c>
+      <c r="B43" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="5"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>1063</v>
+      </c>
+      <c r="B44" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="5"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>1064</v>
+      </c>
+      <c r="B45" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>

--- a/HistoryofChange.xlsx
+++ b/HistoryofChange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\doc\GitHub\ZUSI_TimeTableGraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3EF445-D3EB-422A-B55C-9EB370BFD8E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B7A11A-45FF-4078-983A-3E5A235D99F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="1785" windowWidth="19440" windowHeight="15000" xr2:uid="{B7038BA0-A270-4BE5-8AAE-FFCEF6BA1D43}"/>
   </bookViews>
@@ -796,8 +796,8 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
